--- a/Module 07 - Non-current Assets Held for Sale.xlsx
+++ b/Module 07 - Non-current Assets Held for Sale.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/FINREP Class Notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="504" documentId="8_{5FA2CAF7-EB86-4898-9CAF-6510B911AC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69538FEF-0BC2-4FAF-85FE-3000285E58A3}"/>
+  <xr:revisionPtr revIDLastSave="535" documentId="8_{5FA2CAF7-EB86-4898-9CAF-6510B911AC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322E9D1E-7620-4C47-A849-B0F82162E4F7}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1170" windowWidth="16200" windowHeight="11385" activeTab="3" xr2:uid="{1D4F884C-D501-4C54-A587-936850D3F000}"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="28800" windowHeight="14370" activeTab="1" xr2:uid="{1D4F884C-D501-4C54-A587-936850D3F000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Module 7" sheetId="2" r:id="rId2"/>
     <sheet name="WSE7.1" sheetId="3" r:id="rId3"/>
     <sheet name="WSE7.2" sheetId="5" r:id="rId4"/>
+    <sheet name="WSE7.3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="220">
   <si>
     <t>Main</t>
   </si>
@@ -357,13 +358,486 @@
   </si>
   <si>
     <t>WSE7.2</t>
+  </si>
+  <si>
+    <t>Y/E 31 Dec 20x7</t>
+  </si>
+  <si>
+    <t>The sale of the property qualified as highly probable on 1 September 20X7 as:</t>
+  </si>
+  <si>
+    <t>• on 31 July 20X7 the board decided (committed) to sell the asset;</t>
+  </si>
+  <si>
+    <t>• on 1 September 20X7 the property was actively marketed;</t>
+  </si>
+  <si>
+    <t>• the property was sold at a reasonable price, not significantly different to its carrying amount; and</t>
+  </si>
+  <si>
+    <t>• the sale was made on 15 April 20X8, within 12 months of 1 September 20X7 (as</t>
+  </si>
+  <si>
+    <t>expected).</t>
+  </si>
+  <si>
+    <t>Cost (Bought 1 March 20x1)</t>
+  </si>
+  <si>
+    <t>Accum Dep'n</t>
+  </si>
+  <si>
+    <t>10,000 x 78/480</t>
+  </si>
+  <si>
+    <t>Carrying amount</t>
+  </si>
+  <si>
+    <t>8,400-100</t>
+  </si>
+  <si>
+    <t>Impairment Loss</t>
+  </si>
+  <si>
+    <t>Dr Held for sale</t>
+  </si>
+  <si>
+    <t>Dr Accum Dep'n PPE</t>
+  </si>
+  <si>
+    <t>Dr P&amp;L Impairment Loss</t>
+  </si>
+  <si>
+    <t>Cr PPE Cost</t>
+  </si>
+  <si>
+    <t>Being reclassficiation to NCA held for sale</t>
+  </si>
+  <si>
+    <t>There is no significant change in fair value to 31 December 20X7 and so there is no reversal
+of original impairment nor is there further impairment.</t>
+  </si>
+  <si>
+    <t>Proceeds</t>
+  </si>
+  <si>
+    <t>Selling Costs</t>
+  </si>
+  <si>
+    <t>Net Selling Price</t>
+  </si>
+  <si>
+    <t>&lt;Less selling costs</t>
+  </si>
+  <si>
+    <t>Carrying Amount</t>
+  </si>
+  <si>
+    <t>Dr Bank</t>
+  </si>
+  <si>
+    <t>Cr Gain on Disposal P&amp;L</t>
+  </si>
+  <si>
+    <t>Cr Held for sale</t>
+  </si>
+  <si>
+    <t>Being gain on disposal of held for sale asset</t>
+  </si>
+  <si>
+    <t>Y/E 31 Dec 20X4 and 20X5</t>
+  </si>
+  <si>
+    <t>The sale of the property qualified as highly probable on 1 June 20x4 as:</t>
+  </si>
+  <si>
+    <t>- The board decided on 31 March 20x4 to sell the division</t>
+  </si>
+  <si>
+    <t>- A plan was drawn up</t>
+  </si>
+  <si>
+    <t>- Division was put up for sale</t>
+  </si>
+  <si>
+    <t>• the sale was made on 1 April 20x5, within 12 months of 1 June 20x4</t>
+  </si>
+  <si>
+    <t>15,600-200</t>
+  </si>
+  <si>
+    <t>Dr Trade Payables</t>
+  </si>
+  <si>
+    <t>Cr Liabilitiess - Held for sale</t>
+  </si>
+  <si>
+    <t>being liabilities of the division transferred to liabilities directly associated with non-current assets classified as held for sale</t>
+  </si>
+  <si>
+    <t>Revaluation at 31 Dec 20x4</t>
+  </si>
+  <si>
+    <t>Carrying amount at 1 June 20x4</t>
+  </si>
+  <si>
+    <t>Fair value of assets less costs to sell</t>
+  </si>
+  <si>
+    <t>14,700+1,600 (liabilities)</t>
+  </si>
+  <si>
+    <t>Reveral of impairment loss</t>
+  </si>
+  <si>
+    <t>Cr P&amp;L Impairment loss</t>
+  </si>
+  <si>
+    <t>being reversal of impairment loss at year end</t>
+  </si>
+  <si>
+    <t>Sale at 1 April 20X5</t>
+  </si>
+  <si>
+    <t>Net selling price</t>
+  </si>
+  <si>
+    <t>Carrying Amount after reversal of impairment</t>
+  </si>
+  <si>
+    <t>16,300-400</t>
+  </si>
+  <si>
+    <t>Cr Gain on disposal P&amp;L</t>
+  </si>
+  <si>
+    <t>Dr Liabilities - NCA held for sale</t>
+  </si>
+  <si>
+    <t>Cr Bank</t>
+  </si>
+  <si>
+    <t>Requirement 2 - SOFP as at 31 Dec 20x4</t>
+  </si>
+  <si>
+    <t>Non-current assets</t>
+  </si>
+  <si>
+    <t>Assets held for sale</t>
+  </si>
+  <si>
+    <t>Liabilities - NCA held for sale</t>
+  </si>
+  <si>
+    <t>Prestwick Warehouse</t>
+  </si>
+  <si>
+    <t>Burper plc (‘Burper’) can still treat the Prestwick warehouse as held for sale as the failure to see the asset within one year was due to circumstances not in Burper’s control.</t>
+  </si>
+  <si>
+    <t>Carrying amount at 31 Oct 2018</t>
+  </si>
+  <si>
+    <t>&lt;Sales price</t>
+  </si>
+  <si>
+    <t>Reversal of existing impairment</t>
+  </si>
+  <si>
+    <t>The warehouse should be remeasured to its fair value less costs to sell (‘FVLCTS’) at 31 October 20X8 which gives rise to a £20k reversal of a previous impairment.</t>
+  </si>
+  <si>
+    <t>Dr - NCA Held for sale</t>
+  </si>
+  <si>
+    <t>Cr - P&amp;L Reversal of impairment</t>
+  </si>
+  <si>
+    <t>Leeds Warehouse</t>
+  </si>
+  <si>
+    <t>The sale of the property was held as available for sale and highly probable as:</t>
+  </si>
+  <si>
+    <t>- Actively marketed on 1 May 20x8</t>
+  </si>
+  <si>
+    <t>- A sale is expected to be made within 12 months before December 20x8</t>
+  </si>
+  <si>
+    <t>- the property is to be sold at a reasonable price compared to fair value</t>
+  </si>
+  <si>
+    <t>The assets should be depreciated up to 1 May 20X8, at which point they are classified as non-current assets held for sale, separately from property, plant and equipment.</t>
+  </si>
+  <si>
+    <t>On classification as a non-current asset held for sale, the assets must be classified at the lower of carrying amount and FVLCTS, leading to an impairment loss on the equipment to be recognised in profit or loss.</t>
+  </si>
+  <si>
+    <t>Depreciation charged automatically between 1 May 20X8 and 31 October 20X8 must be removed.</t>
+  </si>
+  <si>
+    <t>There is no change in fair value to 31 October 20X8 and so there is no reversal of original impairment nor is there further impairment.</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Accum dep'n - warehouse</t>
+  </si>
+  <si>
+    <t>520 x 174/(40x12)</t>
+  </si>
+  <si>
+    <t>Carrying amount 1 May 20x8</t>
+  </si>
+  <si>
+    <t>387-20</t>
+  </si>
+  <si>
+    <t>Impairment loss</t>
+  </si>
+  <si>
+    <t>As FVLCTS is higher than CA, no impairment loss.</t>
+  </si>
+  <si>
+    <t>being reclassification to non-current assets held for sale</t>
+  </si>
+  <si>
+    <t>Depreciation that needs removed as automatically charges</t>
+  </si>
+  <si>
+    <t>Charge for period 1 May 20x8 to 31 Oct 20x8</t>
+  </si>
+  <si>
+    <t>520 x 6/480</t>
+  </si>
+  <si>
+    <t>Cr P&amp;L Depreciation charge</t>
+  </si>
+  <si>
+    <t>Being correction of automatic posting of depreciation</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Cost 1 Nov</t>
+  </si>
+  <si>
+    <t>100 x (102/120)</t>
+  </si>
+  <si>
+    <t>13-1</t>
+  </si>
+  <si>
+    <t>Dr NCA Held for sale</t>
+  </si>
+  <si>
+    <t>Dr Accum Dep'n P&amp;M</t>
+  </si>
+  <si>
+    <t>Dr P&amp;L - Impairment loss</t>
+  </si>
+  <si>
+    <t>Cr - P&amp;M Cost</t>
+  </si>
+  <si>
+    <t>Being reclassification to non-current assets held for sale</t>
+  </si>
+  <si>
+    <t>Charge for 1 May 20x8-31 Oct 20x8</t>
+  </si>
+  <si>
+    <t>100 x 6/120</t>
+  </si>
+  <si>
+    <t>Being correction of automatic depreciation posting</t>
+  </si>
+  <si>
+    <t>In order to be classified as held for sale, a number of criteria must be met:</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The asset must be available for sale in its present condition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A sale must be highly probable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The appropriate level of management must be committed to selling the asset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The asset must be actively marketed at a reasonable price compared to fair value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A sale should be expected within 12 months of classification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Significant changes to the sales plan must be unlikely</t>
+    </r>
+  </si>
+  <si>
+    <t>An extension beyond the 12 month period is possible if a delay is due to circumstances beyond the entity’s control and the entity remains committed to its plan to sell the asset.</t>
+  </si>
+  <si>
+    <t>Date criteria are satisfied</t>
+  </si>
+  <si>
+    <t>Accounting treatment</t>
+  </si>
+  <si>
+    <t>Criteria met before the year end date</t>
+  </si>
+  <si>
+    <t>Accounted for and disclosed as held for sale</t>
+  </si>
+  <si>
+    <t>Criteria are met after the year-end date</t>
+  </si>
+  <si>
+    <t>The asset or disposal group should not be classified as held for sale</t>
+  </si>
+  <si>
+    <t>Criteria are met after the year and date but before financial statements are authorised</t>
+  </si>
+  <si>
+    <t>Certain disclosures are required (see section 3.2 in notes) Not HFS category.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +876,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -417,7 +952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -425,12 +960,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -444,8 +1052,46 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -466,15 +1112,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>343884</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C17682-6A61-3B37-4212-B0573F4AFAE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1714500"/>
+          <a:ext cx="7049484" cy="2991267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>30153</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>494953</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>494952</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -512,13 +1207,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>450348</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>84297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -544,6 +1239,197 @@
         <a:xfrm>
           <a:off x="6140824" y="5524500"/>
           <a:ext cx="7106642" cy="1810003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8985BC8C-917B-4C5D-8ECE-86E73A5FE9B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605119" y="190501"/>
+          <a:ext cx="3025588" cy="2589752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145830</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F16105-4965-4F64-94C9-23FFA98E99F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612321" y="190500"/>
+          <a:ext cx="3846973" cy="5238750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8077EAF-D73F-4620-A179-F38BA2DA51C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="152400"/>
+          <a:ext cx="3733800" cy="3007480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>573720</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60057C42-E510-4933-BD6B-7DCE8A074968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="3200400"/>
+          <a:ext cx="3783644" cy="4057650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -855,7 +1741,7 @@
   <dimension ref="B2:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,363 +1789,442 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073FE502-5970-4432-9606-A8CF2D78A1C0}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="25"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:5" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C25" s="3">
         <v>45291</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D27" s="4">
         <v>120000000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D28" s="4">
         <v>45000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="4">
-        <f>0.0611111111111111*D12</f>
-        <v>7333333.333333333</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D29" s="4">
+        <f>0.0611111111111111*D27</f>
+        <v>7333333.3333333321</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C30" s="3">
         <v>44927</v>
       </c>
-      <c r="D15" s="5">
-        <f>+D12-D13-D14</f>
+      <c r="D30" s="5">
+        <f>+D27-D28-D29</f>
         <v>67666666.666666672</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D31" s="4">
         <v>15</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C32" s="3">
         <v>45261</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D32" s="4">
         <v>65000000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C33" s="3">
         <v>45261</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D33" s="4">
         <v>-2100000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="5">
-        <f>SUM(D17:D18)</f>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="5">
+        <f>SUM(D32:D33)</f>
         <v>62900000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="4">
-        <f>+D19</f>
+      <c r="D36" s="4">
+        <f>+D34</f>
         <v>62900000</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="4">
-        <f>+D15-D21</f>
+      <c r="E38" s="4">
+        <f>+D30-D36</f>
         <v>4766666.6666666716</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="4">
-        <f>+D21</f>
+      <c r="E39" s="4">
+        <f>+D36</f>
         <v>62900000</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="4">
-        <f>+D13+D14</f>
-        <v>52333333.333333336</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
+      <c r="E40" s="4">
+        <f>+D28+D29</f>
+        <v>52333333.333333328</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="4">
-        <f>SUM(E23:E25)</f>
+      <c r="F41" s="4">
+        <f>SUM(E38:E40)</f>
         <v>120000000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="3">
         <v>45657</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D45" s="4">
         <v>69000000</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D46" s="4">
         <v>-2200000</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="3">
-        <f>+B29</f>
+      <c r="C47" s="3">
+        <f>+B44</f>
         <v>45657</v>
       </c>
-      <c r="D32" s="4">
-        <f>SUM(D30:D31)</f>
+      <c r="D47" s="4">
+        <f>SUM(D45:D46)</f>
         <v>66800000</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C48" s="3">
         <v>45291</v>
       </c>
-      <c r="D33" s="4">
-        <f>+D21</f>
+      <c r="D48" s="4">
+        <f>+D36</f>
         <v>62900000</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="4">
-        <f>+D32-D33</f>
+      <c r="D49" s="4">
+        <f>+D47-D48</f>
         <v>3900000</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="4">
-        <f>+F37</f>
+      <c r="E51" s="4">
+        <f>+F52</f>
         <v>3900000</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="4">
-        <f>+D34</f>
+      <c r="F52" s="4">
+        <f>+D49</f>
         <v>3900000</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="3">
         <v>45747</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D57" s="4">
         <v>71000000</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D58" s="4">
         <v>-2400000</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="3">
-        <f>+B41</f>
+      <c r="C59" s="3">
+        <f>+B56</f>
         <v>45747</v>
       </c>
-      <c r="D44" s="8">
-        <f>SUM(D42:D43)</f>
+      <c r="D59" s="8">
+        <f>SUM(D57:D58)</f>
         <v>68600000</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="4">
-        <f>+D32</f>
+      <c r="D60" s="4">
+        <f>+D47</f>
         <v>66800000</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="4">
-        <f>+D44-D45</f>
+      <c r="D61" s="4">
+        <f>+D59-D60</f>
         <v>1800000</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="4">
-        <f>+D44</f>
+      <c r="E63" s="4">
+        <f>+D59</f>
         <v>68600000</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="s">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="4">
-        <f>+D45</f>
+      <c r="F64" s="4">
+        <f>+D60</f>
         <v>66800000</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="1" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="4">
-        <f>+E48-F49</f>
+      <c r="F65" s="4">
+        <f>+E63-F64</f>
         <v>1800000</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1274,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6D7F7B-3D7B-4BA9-BE92-6A240947FA25}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A58" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1285,375 +2250,735 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="7" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C24" s="3">
         <v>46752</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1">
+      <c r="C26" s="3"/>
+      <c r="D26" s="1">
         <f>40*12</f>
         <v>480</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="11"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
         <v>46387</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C43" s="3">
         <v>44256</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D43" s="4">
         <v>10000000</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C44" s="3">
         <v>46631</v>
       </c>
-      <c r="D25" s="4">
-        <f>0.1625*D24</f>
+      <c r="D44" s="4">
+        <f>0.1625*D43</f>
         <v>1625000</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="1">
-        <f>+YEARFRAC(C24,C25)*12</f>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <f>+YEARFRAC(C43,C44)*12</f>
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="3">
-        <f>+C25</f>
+      <c r="C46" s="3">
+        <f>+C44</f>
         <v>46631</v>
       </c>
-      <c r="D27" s="4">
-        <f>+D24-D25</f>
+      <c r="D46" s="4">
+        <f>+D43-D44</f>
         <v>8375000</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C47" s="3">
         <v>46631</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D47" s="4">
         <v>8400000</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C48" s="3">
         <v>46631</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D48" s="4">
         <v>-100000</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C49" s="3">
         <v>46631</v>
       </c>
-      <c r="D30" s="4">
-        <f>SUM(D28:D29)</f>
+      <c r="D49" s="4">
+        <f>SUM(D47:D48)</f>
         <v>8300000</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="4">
-        <f>+D30</f>
+      <c r="D51" s="4">
+        <f>+D49</f>
         <v>8300000</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="4">
-        <f>+D27-D30</f>
+      <c r="D52" s="4">
+        <f>+D46-D49</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="4">
-        <f>+D33</f>
+      <c r="E54" s="4">
+        <f>+D52</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="4">
-        <f>+D32</f>
+      <c r="E55" s="4">
+        <f>+D51</f>
         <v>8300000</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="4">
-        <f>+D25</f>
+      <c r="E56" s="4">
+        <f>+D44</f>
         <v>1625000</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="4">
-        <f>SUM(E35:E37)</f>
+      <c r="F57" s="4">
+        <f>SUM(E54:E56)</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C61" s="3">
         <v>46858</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D61" s="4">
         <v>8500000</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D62" s="4">
         <v>-120000</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="3">
-        <f>+C42</f>
+      <c r="C63" s="3">
+        <f>+C61</f>
         <v>46858</v>
       </c>
-      <c r="D44" s="10">
-        <f>SUM(D42:D43)</f>
+      <c r="D63" s="10">
+        <f>SUM(D61:D62)</f>
         <v>8380000</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E63" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C64" s="3">
         <v>46631</v>
       </c>
-      <c r="D45" s="8">
-        <f>+D30</f>
+      <c r="D64" s="8">
+        <f>+D49</f>
         <v>8300000</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E64" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="4">
-        <f>+D44-D45</f>
+      <c r="D65" s="4">
+        <f>+D63-D64</f>
         <v>80000</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E65" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="4">
-        <f>+D44</f>
+      <c r="E67" s="4">
+        <f>+D63</f>
         <v>8380000</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="s">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="4">
-        <f>+D46</f>
+      <c r="F68" s="4">
+        <f>+D65</f>
         <v>80000</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C50" s="1" t="s">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="4">
-        <f>+D45</f>
+      <c r="F69" s="4">
+        <f>+D64</f>
         <v>8300000</v>
       </c>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="76" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B76" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B77" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B83"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+    </row>
+    <row r="85" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="16">
+        <f>10000*78/480</f>
+        <v>1625</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14">
+        <f>D84-D85</f>
+        <v>8375</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+    </row>
+    <row r="87" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="16">
+        <f>8400-100</f>
+        <v>8300</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+    </row>
+    <row r="88" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14">
+        <f>D86-D87</f>
+        <v>75</v>
+      </c>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B89"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+    </row>
+    <row r="90" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="14">
+        <v>8300</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="14">
+        <v>1625</v>
+      </c>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="14">
+        <v>75</v>
+      </c>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B94" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B95" s="17"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+    </row>
+    <row r="97" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B97"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+    </row>
+    <row r="98" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="14">
+        <v>8500</v>
+      </c>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+    </row>
+    <row r="99" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="14">
+        <v>120</v>
+      </c>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+    </row>
+    <row r="100" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="14">
+        <f>C98-C99</f>
+        <v>8380</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+    </row>
+    <row r="101" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="16">
+        <v>8300</v>
+      </c>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+    </row>
+    <row r="102" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="14">
+        <f>C100-C101</f>
+        <v>80</v>
+      </c>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+    </row>
+    <row r="103" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B103"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+    </row>
+    <row r="104" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="14">
+        <f>C100</f>
+        <v>8380</v>
+      </c>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+    </row>
+    <row r="105" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14">
+        <f>C102</f>
+        <v>80</v>
+      </c>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+    </row>
+    <row r="106" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14">
+        <f>C101</f>
+        <v>8300</v>
+      </c>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+    </row>
+    <row r="107" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B107" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{FE98A1DF-9AA7-4DCC-9D3F-56AD1286039C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7595C-D7C0-4AE0-B15E-FCEBE0E59D68}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107:D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1663,424 +2988,1968 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D12" s="4">
-        <v>15800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D13" s="4">
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D14" s="4">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D15" s="5">
-        <f>SUM(D13:D14)</f>
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45657</v>
-      </c>
-      <c r="D16" s="4">
-        <v>14700</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3">
-        <v>45748</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18700</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="3">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="4">
-        <f>+D12-D15</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="4">
-        <f>+F29-E27</f>
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="4">
-        <f>+D12</f>
-        <v>15800</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="1">
-        <f>+E32</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="3">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D38" s="5">
-        <f>+D15</f>
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="3">
-        <f>+C16</f>
-        <v>45657</v>
-      </c>
-      <c r="D39" s="4">
-        <f>+D16</f>
-        <v>14700</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C40" s="3">
         <v>45657</v>
       </c>
-      <c r="D40" s="4">
-        <f>+E32</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="3">
-        <v>45657</v>
-      </c>
-      <c r="D41" s="5">
-        <f>+D39+D40</f>
-        <v>16300</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="3">
-        <v>45657</v>
-      </c>
-      <c r="D42" s="4">
-        <f>+D41-D38</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="3">
-        <v>45657</v>
-      </c>
-      <c r="D43" s="4">
-        <f>+E27</f>
-        <v>400</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="E45" s="4">
-        <f>+D43</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4">
-        <f>+E45</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="11" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="3">
+        <v>45444</v>
+      </c>
+      <c r="D47" s="4">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C48" s="3">
-        <v>45748</v>
+        <v>45444</v>
+      </c>
+      <c r="D48" s="4">
+        <v>15600</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="3"/>
+      <c r="B49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45444</v>
+      </c>
+      <c r="D49" s="4">
+        <v>-200</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="4">
-        <f>+D17</f>
+        <v>17</v>
+      </c>
+      <c r="C50" s="3">
+        <v>45444</v>
+      </c>
+      <c r="D50" s="5">
+        <f>SUM(D48:D49)</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="3">
+        <v>45657</v>
+      </c>
+      <c r="D51" s="4">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="3">
+        <v>45748</v>
+      </c>
+      <c r="D52" s="4">
         <v>18700</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="4">
-        <f>+E28+E45</f>
-        <v>15800</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="4">
-        <f>+E50-F51</f>
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>84</v>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" s="1">
-        <f>+E32</f>
-        <v>1600</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="1">
-        <f>+E55</f>
-        <v>1600</v>
+      <c r="B56" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="3">
-        <v>45657</v>
+      <c r="B60" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="3">
+        <v>45444</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="4">
+        <f>+D47-D50</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="4">
+        <f>+F64-E62</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="4">
+        <f>+D47</f>
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="1">
+        <f>+E67</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="3">
+        <v>45444</v>
+      </c>
+      <c r="D73" s="5">
+        <f>+D50</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="3">
+        <f>+C51</f>
+        <v>45657</v>
+      </c>
+      <c r="D74" s="4">
+        <f>+D51</f>
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="3">
+        <v>45657</v>
+      </c>
+      <c r="D75" s="4">
+        <f>+E67</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="3">
+        <v>45657</v>
+      </c>
+      <c r="D76" s="5">
+        <f>+D74+D75</f>
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="3">
+        <v>45657</v>
+      </c>
+      <c r="D77" s="4">
+        <f>+D76-D73</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="3">
+        <v>45657</v>
+      </c>
+      <c r="D78" s="4">
+        <f>+E62</f>
+        <v>400</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="E80" s="4">
+        <f>+D78</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C81" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4">
+        <f>+E80</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="3">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="4">
+        <f>+D52</f>
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" s="4">
+        <f>+E63+E80</f>
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" s="4">
+        <f>+E85-F86</f>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="1">
+        <f>+E67</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" s="1">
+        <f>+E90</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="4">
-        <f>+F51</f>
+      <c r="E97" s="4">
+        <f>+F86</f>
         <v>15800</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E65" s="1">
-        <f>+E55</f>
+      <c r="E100" s="1">
+        <f>+E90</f>
         <v>1600</v>
       </c>
+    </row>
+    <row r="107" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B108"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B109" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B110" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B111" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B112" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+    </row>
+    <row r="113" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+    </row>
+    <row r="114" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+    </row>
+    <row r="115" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B115"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+    </row>
+    <row r="116" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" s="14">
+        <v>15800</v>
+      </c>
+      <c r="D116" s="14"/>
+    </row>
+    <row r="117" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="16">
+        <v>15400</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="14">
+        <f>C116-C117</f>
+        <v>400</v>
+      </c>
+      <c r="D118" s="14"/>
+    </row>
+    <row r="119" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B119"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="14">
+        <f>C117</f>
+        <v>15400</v>
+      </c>
+      <c r="D120" s="14"/>
+    </row>
+    <row r="121" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="14">
+        <v>400</v>
+      </c>
+      <c r="D121" s="14"/>
+    </row>
+    <row r="122" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B123" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+    </row>
+    <row r="124" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B124"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+    </row>
+    <row r="125" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" s="14">
+        <v>1600</v>
+      </c>
+      <c r="D125" s="14"/>
+    </row>
+    <row r="126" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>143</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+    </row>
+    <row r="128" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B128"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+    </row>
+    <row r="129" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B129" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+    </row>
+    <row r="130" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="14">
+        <v>15400</v>
+      </c>
+      <c r="D130" s="14"/>
+    </row>
+    <row r="131" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" s="16">
+        <f>14700+1600</f>
+        <v>16300</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="19">
+        <f>C131-C130</f>
+        <v>900</v>
+      </c>
+      <c r="D132" s="14"/>
+    </row>
+    <row r="133" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133" s="14">
+        <f>C118</f>
+        <v>400</v>
+      </c>
+      <c r="D133" s="14"/>
+    </row>
+    <row r="134" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B134"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+    </row>
+    <row r="135" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>119</v>
+      </c>
+      <c r="C135" s="14">
+        <v>400</v>
+      </c>
+      <c r="D135" s="14"/>
+    </row>
+    <row r="136" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>149</v>
+      </c>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+    </row>
+    <row r="138" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B138"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+    </row>
+    <row r="139" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B139" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="14">
+        <v>18700</v>
+      </c>
+      <c r="D140" s="14"/>
+    </row>
+    <row r="141" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="16">
+        <f>16300-400</f>
+        <v>15900</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="14">
+        <f>C140-C141</f>
+        <v>2800</v>
+      </c>
+      <c r="D142" s="14"/>
+    </row>
+    <row r="143" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B143"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+    </row>
+    <row r="144" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>130</v>
+      </c>
+      <c r="C144" s="14">
+        <v>18700</v>
+      </c>
+      <c r="D144" s="14"/>
+    </row>
+    <row r="145" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>155</v>
+      </c>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>65</v>
+      </c>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+    </row>
+    <row r="148" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B148"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+    </row>
+    <row r="149" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>156</v>
+      </c>
+      <c r="C149" s="14">
+        <v>1600</v>
+      </c>
+      <c r="D149" s="14"/>
+    </row>
+    <row r="150" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B151"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+    </row>
+    <row r="152" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B152" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>159</v>
+      </c>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+    </row>
+    <row r="154" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>160</v>
+      </c>
+      <c r="C154" s="14">
+        <f>D122</f>
+        <v>15800</v>
+      </c>
+      <c r="D154" s="14"/>
+    </row>
+    <row r="155" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B155"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+    </row>
+    <row r="156" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>103</v>
+      </c>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+    </row>
+    <row r="157" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" s="14">
+        <v>1600</v>
+      </c>
+      <c r="D157" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4BF8B848-0400-442D-91E0-019C184D92FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1734FE20-1D04-4658-9CF9-1EE15A546C9B}">
+  <dimension ref="A1:N112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+    </row>
+    <row r="52" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="14">
+        <v>370</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="16">
+        <v>390</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+    </row>
+    <row r="56" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="14">
+        <f>C55-C54</f>
+        <v>20</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+    </row>
+    <row r="57" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+    </row>
+    <row r="58" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+    </row>
+    <row r="59" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+    </row>
+    <row r="60" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="14">
+        <v>20</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+    </row>
+    <row r="61" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14">
+        <v>20</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+    </row>
+    <row r="62" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+    </row>
+    <row r="63" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+    </row>
+    <row r="64" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+    </row>
+    <row r="65" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+    </row>
+    <row r="66" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+    </row>
+    <row r="67" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+    </row>
+    <row r="68" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+    </row>
+    <row r="69" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+    </row>
+    <row r="70" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+    </row>
+    <row r="71" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+    </row>
+    <row r="72" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+    </row>
+    <row r="73" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="14">
+        <v>520</v>
+      </c>
+      <c r="D75" s="14"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="16">
+        <f>520*(174/(40*12))</f>
+        <v>188.5</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="14">
+        <f>C75-C76</f>
+        <v>331.5</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+    </row>
+    <row r="78" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="14">
+        <f>387-20</f>
+        <v>367</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+    </row>
+    <row r="79" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="14">
+        <v>0</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+    </row>
+    <row r="80" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B80"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+    </row>
+    <row r="81" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="14">
+        <f>C77</f>
+        <v>331.5</v>
+      </c>
+      <c r="D81" s="14"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+    </row>
+    <row r="82" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="14">
+        <f>189</f>
+        <v>189</v>
+      </c>
+      <c r="D82" s="14"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+    </row>
+    <row r="83" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14">
+        <v>520</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+    </row>
+    <row r="84" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B84" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+    </row>
+    <row r="85" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B85"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B86" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="14">
+        <v>520</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="2:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B88" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="14">
+        <f>C87*(6/480)</f>
+        <v>6.5</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B89"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="14">
+        <v>7</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14">
+        <v>7</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B92" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B93"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B94" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="14">
+        <v>100</v>
+      </c>
+      <c r="D95" s="14"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="14">
+        <f>100*(102/120)</f>
+        <v>85</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="14">
+        <f>C95-C96</f>
+        <v>15</v>
+      </c>
+      <c r="D97" s="14"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="16">
+        <f>13-1</f>
+        <v>12</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="14">
+        <f>C97-C98</f>
+        <v>3</v>
+      </c>
+      <c r="D99" s="14"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B100"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+    </row>
+    <row r="101" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="14">
+        <f>C98</f>
+        <v>12</v>
+      </c>
+      <c r="D101" s="14"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+    </row>
+    <row r="102" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="14">
+        <v>85</v>
+      </c>
+      <c r="D102" s="14"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+    </row>
+    <row r="103" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="14">
+        <v>3</v>
+      </c>
+      <c r="D103" s="14"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+    </row>
+    <row r="104" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14">
+        <v>100</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+    </row>
+    <row r="105" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B105" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B106"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+    </row>
+    <row r="107" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B107" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+    </row>
+    <row r="108" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" s="14">
+        <f>100*(6/120)</f>
+        <v>5</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+    </row>
+    <row r="109" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B109"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" s="14">
+        <v>5</v>
+      </c>
+      <c r="D110" s="14"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+    </row>
+    <row r="111" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14">
+        <v>5</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+    </row>
+    <row r="112" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B70:N70"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B57B178E-D1B4-4CC6-9D5E-B3009F247C86}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>